--- a/lab1/data_dictionary.xlsx
+++ b/lab1/data_dictionary.xlsx
@@ -8,11 +8,13 @@
     <sheet state="visible" name="Genres" sheetId="3" r:id="rId5"/>
     <sheet state="visible" name="Aka_Titles" sheetId="4" r:id="rId6"/>
     <sheet state="visible" name="Cast" sheetId="5" r:id="rId7"/>
-    <sheet state="visible" name="Keywords" sheetId="6" r:id="rId8"/>
-    <sheet state="visible" name="Movies" sheetId="7" r:id="rId9"/>
-    <sheet state="visible" name="Movies_Genres" sheetId="8" r:id="rId10"/>
-    <sheet state="visible" name="Movies_Keywords" sheetId="9" r:id="rId11"/>
-    <sheet state="visible" name="Series" sheetId="10" r:id="rId12"/>
+    <sheet state="visible" name="Cast Group" sheetId="6" r:id="rId8"/>
+    <sheet state="visible" name="Keywords" sheetId="7" r:id="rId9"/>
+    <sheet state="visible" name="Movies" sheetId="8" r:id="rId10"/>
+    <sheet state="visible" name="Movies_Genres" sheetId="9" r:id="rId11"/>
+    <sheet state="visible" name="Movies_Keywords" sheetId="10" r:id="rId12"/>
+    <sheet state="visible" name="Movie Info" sheetId="11" r:id="rId13"/>
+    <sheet state="visible" name="Series" sheetId="12" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="57">
   <si>
     <t>Column names</t>
   </si>
@@ -58,7 +60,19 @@
     <t>aka_names.csv</t>
   </si>
   <si>
+    <t>actors.csv</t>
+  </si>
+  <si>
+    <t>l_name</t>
+  </si>
+  <si>
+    <t>varchar(30)</t>
+  </si>
+  <si>
     <t>id_genres</t>
+  </si>
+  <si>
+    <t>f_name</t>
   </si>
   <si>
     <t>genres.csv</t>
@@ -67,16 +81,7 @@
     <t>genres</t>
   </si>
   <si>
-    <t>str</t>
-  </si>
-  <si>
-    <t>actors.csv</t>
-  </si>
-  <si>
-    <t>l_name</t>
-  </si>
-  <si>
-    <t>f_name</t>
+    <t>varchar(20)</t>
   </si>
   <si>
     <t>m_name</t>
@@ -88,19 +93,28 @@
     <t>number</t>
   </si>
   <si>
-    <t>Number/idgenres refers to the genre primary key</t>
+    <t xml:space="preserve">null contraint </t>
   </si>
   <si>
-    <t xml:space="preserve">null contraint </t>
+    <t>Number/idgenres refers to the genre primary key</t>
   </si>
   <si>
     <t>name</t>
   </si>
   <si>
+    <t>str</t>
+  </si>
+  <si>
     <t>id_aka_titles</t>
   </si>
   <si>
+    <t>id_cast</t>
+  </si>
+  <si>
     <t>aka_titles.csv</t>
+  </si>
+  <si>
+    <t>cast.csv</t>
   </si>
   <si>
     <t>id_movies</t>
@@ -112,16 +126,10 @@
     <t>location</t>
   </si>
   <si>
-    <t>year</t>
+    <t>id_series</t>
   </si>
   <si>
-    <t>id_cast</t>
-  </si>
-  <si>
-    <t>cast.csv</t>
-  </si>
-  <si>
-    <t>id_series</t>
+    <t>year</t>
   </si>
   <si>
     <t>character</t>
@@ -176,6 +184,9 @@
   </si>
   <si>
     <t>idmovies_keywords</t>
+  </si>
+  <si>
+    <t>varchar(50)</t>
   </si>
   <si>
     <t>series.csv</t>
@@ -276,6 +287,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
@@ -381,7 +400,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>9</v>
@@ -408,17 +427,17 @@
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -442,17 +461,17 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -476,17 +495,17 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -510,7 +529,7 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>10</v>
@@ -520,7 +539,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -544,22 +563,22 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -28390,6 +28409,216 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="17.57"/>
+    <col customWidth="1" min="3" max="3" width="17.43"/>
+    <col customWidth="1" min="6" max="6" width="19.71"/>
+    <col customWidth="1" min="7" max="7" width="17.14"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="36.0" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="G5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="18.29"/>
+    <col customWidth="1" min="3" max="3" width="21.0"/>
+    <col customWidth="1" min="4" max="4" width="32.29"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="36.0" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -28442,72 +28671,72 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>23</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -28602,13 +28831,13 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -28669,30 +28898,30 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -28753,69 +28982,69 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>23</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -28876,47 +29105,47 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
@@ -28935,27 +29164,27 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -29015,22 +29244,112 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1" ht="36.0" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+    </row>
+    <row r="2">
       <c r="A2" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
@@ -29054,10 +29373,10 @@
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -29066,10 +29385,10 @@
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
@@ -57011,7 +57330,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -57067,89 +57386,77 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>42</v>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>44</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H7" s="3"/>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H8" s="3"/>
     </row>
@@ -57158,7 +57465,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -57215,194 +57522,67 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>23</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="17.57"/>
-    <col customWidth="1" min="3" max="3" width="17.43"/>
-    <col customWidth="1" min="6" max="6" width="19.71"/>
-    <col customWidth="1" min="7" max="7" width="17.14"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="36.0" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/lab1/data_dictionary.xlsx
+++ b/lab1/data_dictionary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="4" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="5" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="57">
   <si>
     <t>Column names</t>
   </si>
@@ -99,9 +99,6 @@
   </si>
   <si>
     <t>number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">null contraint </t>
   </si>
   <si>
     <t>Number/idgenres refers to the genre primary key</t>
@@ -201,6 +198,9 @@
   </si>
   <si>
     <t>season</t>
+  </si>
+  <si>
+    <t>not null constraint</t>
   </si>
 </sst>
 </file>
@@ -565,7 +565,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -633,7 +635,9 @@
         <v>9</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="E2" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
@@ -813,7 +817,7 @@
         <v>22</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -28647,7 +28651,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -28701,52 +28707,55 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>31</v>
+      <c r="D3" s="3" t="s">
+        <v>30</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>23</v>
+      <c r="E3" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
@@ -28754,10 +28763,10 @@
       <c r="B5" s="3"/>
       <c r="D5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -28769,8 +28778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -28824,32 +28833,38 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E2" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -28861,7 +28876,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -28909,60 +28926,63 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>23</v>
+      <c r="E4" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
@@ -28988,7 +29008,120 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+    </row>
+    <row r="2" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -29036,49 +29169,35 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>11</v>
+      <c r="E2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -29086,11 +29205,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:Z6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -29138,32 +29259,74 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>15</v>
+        <v>26</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>18</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -29171,11 +29334,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z6"/>
+  <dimension ref="A1:Z7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -29223,7 +29388,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>27</v>
       </c>
@@ -29233,6 +29398,9 @@
       <c r="C2" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="E2" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="F2" s="3" t="s">
         <v>29</v>
       </c>
@@ -29242,41 +29410,44 @@
     </row>
     <row r="3" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
@@ -29284,10 +29455,24 @@
         <v>35</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>35</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -29295,11 +29480,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -29347,88 +29534,44 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>30</v>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>25</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -29436,11 +29579,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -29488,114 +29633,25 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1000"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-    </row>
-    <row r="2" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8" t="s">
-        <v>40</v>
-      </c>
       <c r="G2" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
@@ -29619,22 +29675,22 @@
     </row>
     <row r="3" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
-      <c r="E3" s="3" t="s">
-        <v>23</v>
+      <c r="E3" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
@@ -57580,7 +57636,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -57631,43 +57689,46 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
@@ -57688,14 +57749,14 @@
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H7" s="3"/>
     </row>
@@ -57703,7 +57764,7 @@
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H8" s="3"/>
     </row>
@@ -57717,7 +57778,7 @@
   <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -57770,38 +57831,41 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>23</v>
+      <c r="E3" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
@@ -57820,19 +57884,19 @@
     </row>
     <row r="5" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/lab1/data_dictionary.xlsx
+++ b/lab1/data_dictionary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="5" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Genres" sheetId="3" r:id="rId3"/>
     <sheet name="Aka_Titles" sheetId="4" r:id="rId4"/>
     <sheet name="Cast" sheetId="5" r:id="rId5"/>
-    <sheet name="Cast Group" sheetId="6" r:id="rId6"/>
+    <sheet name="Cast_Group" sheetId="6" r:id="rId6"/>
     <sheet name="Keywords" sheetId="7" r:id="rId7"/>
     <sheet name="Movies" sheetId="8" r:id="rId8"/>
     <sheet name="Movies_Genres" sheetId="9" r:id="rId9"/>
@@ -28876,7 +28876,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -29062,7 +29062,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -29484,8 +29484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/lab1/data_dictionary.xlsx
+++ b/lab1/data_dictionary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="1" r:id="rId1"/>
@@ -28651,8 +28651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -28732,7 +28732,7 @@
         <v>30</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>30</v>
@@ -29484,7 +29484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>

--- a/lab1/data_dictionary.xlsx
+++ b/lab1/data_dictionary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="5" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="1" r:id="rId1"/>
@@ -17,20 +17,19 @@
     <sheet name="Genres" sheetId="3" r:id="rId3"/>
     <sheet name="Aka_Titles" sheetId="4" r:id="rId4"/>
     <sheet name="Cast" sheetId="5" r:id="rId5"/>
-    <sheet name="Cast_Group" sheetId="6" r:id="rId6"/>
-    <sheet name="Keywords" sheetId="7" r:id="rId7"/>
-    <sheet name="Movies" sheetId="8" r:id="rId8"/>
-    <sheet name="Movies_Genres" sheetId="9" r:id="rId9"/>
-    <sheet name="Movies_Keywords" sheetId="10" r:id="rId10"/>
-    <sheet name="Movie_Info" sheetId="11" r:id="rId11"/>
-    <sheet name="Series" sheetId="12" r:id="rId12"/>
+    <sheet name="Keywords" sheetId="7" r:id="rId6"/>
+    <sheet name="Movies" sheetId="8" r:id="rId7"/>
+    <sheet name="Movies_Genres" sheetId="9" r:id="rId8"/>
+    <sheet name="Movies_Keywords" sheetId="10" r:id="rId9"/>
+    <sheet name="Movie_Info" sheetId="11" r:id="rId10"/>
+    <sheet name="Series" sheetId="12" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="57">
   <si>
     <t>Column names</t>
   </si>
@@ -565,7 +564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -28649,133 +28648,6 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-    </row>
-    <row r="2" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="G5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -28872,7 +28744,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z6"/>
   <sheetViews>
@@ -29338,7 +29210,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -29481,105 +29353,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-    </row>
-    <row r="2" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
@@ -57632,7 +57405,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z8"/>
   <sheetViews>
@@ -57773,7 +57546,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z5"/>
   <sheetViews>
@@ -57902,4 +57675,131 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+    </row>
+    <row r="2" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="G5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/lab1/data_dictionary.xlsx
+++ b/lab1/data_dictionary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="59">
   <si>
     <t>Column names</t>
   </si>
@@ -200,6 +200,12 @@
   </si>
   <si>
     <t>not null constraint</t>
+  </si>
+  <si>
+    <t>idmovies</t>
+  </si>
+  <si>
+    <t>idmovies_info</t>
   </si>
 </sst>
 </file>
@@ -28648,10 +28654,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:Z4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -28707,7 +28713,7 @@
     </row>
     <row r="2" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>10</v>
@@ -28716,7 +28722,7 @@
         <v>30</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>56</v>
@@ -28724,19 +28730,27 @@
     </row>
     <row r="3" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -29081,7 +29095,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -29210,8 +29224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -57410,7 +57424,7 @@
   <dimension ref="A1:Z8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -57551,7 +57565,7 @@
   <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -57641,7 +57655,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -57651,11 +57665,14 @@
       <c r="D4" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="E4" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="G4" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>33</v>
       </c>
@@ -57664,6 +57681,9 @@
       </c>
       <c r="D5" s="3" t="s">
         <v>33</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>33</v>
@@ -57682,13 +57702,14 @@
   <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.5703125" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.7109375" customWidth="1"/>
     <col min="7" max="7" width="17.140625" customWidth="1"/>
   </cols>
@@ -57784,6 +57805,9 @@
       <c r="D4" s="3" t="s">
         <v>38</v>
       </c>
+      <c r="E4" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="G4" s="3" t="s">
         <v>38</v>
       </c>

--- a/lab1/data_dictionary.xlsx
+++ b/lab1/data_dictionary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="1" r:id="rId1"/>
@@ -21,15 +21,14 @@
     <sheet name="Movies" sheetId="8" r:id="rId7"/>
     <sheet name="Movies_Genres" sheetId="9" r:id="rId8"/>
     <sheet name="Movies_Keywords" sheetId="10" r:id="rId9"/>
-    <sheet name="Movie_Info" sheetId="11" r:id="rId10"/>
-    <sheet name="Series" sheetId="12" r:id="rId11"/>
+    <sheet name="Series" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="58">
   <si>
     <t>Column names</t>
   </si>
@@ -202,10 +201,7 @@
     <t>not null constraint</t>
   </si>
   <si>
-    <t>idmovies</t>
-  </si>
-  <si>
-    <t>idmovies_info</t>
+    <t>not null and unique constraint</t>
   </si>
 </sst>
 </file>
@@ -629,7 +625,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -641,7 +637,7 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>12</v>
@@ -28654,116 +28650,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-    </row>
-    <row r="2" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -28812,7 +28702,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>33</v>
       </c>
@@ -28823,7 +28713,7 @@
         <v>33</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>54</v>
@@ -28895,7 +28785,7 @@
   <dimension ref="A1:Z4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -28948,7 +28838,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -28959,7 +28849,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>11</v>
@@ -29055,7 +28945,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -29066,7 +28956,7 @@
         <v>15</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>17</v>
@@ -29095,8 +28985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -29145,7 +29035,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>26</v>
       </c>
@@ -29156,7 +29046,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>28</v>
@@ -29225,7 +29115,7 @@
   <dimension ref="A1:Z7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -29274,7 +29164,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>27</v>
       </c>
@@ -29285,7 +29175,7 @@
         <v>27</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>29</v>
@@ -29371,7 +29261,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -29420,7 +29310,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>38</v>
       </c>
@@ -29432,7 +29322,7 @@
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>39</v>
@@ -57424,7 +57314,7 @@
   <dimension ref="A1:Z8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -57476,7 +57366,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>30</v>
       </c>
@@ -57487,7 +57377,7 @@
         <v>30</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>42</v>
@@ -57565,7 +57455,7 @@
   <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -57618,7 +57508,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>45</v>
       </c>
@@ -57629,7 +57519,7 @@
         <v>46</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>47</v>
@@ -57702,7 +57592,7 @@
   <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -57769,7 +57659,7 @@
         <v>50</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>51</v>
@@ -57778,7 +57668,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>30</v>
       </c>

--- a/lab1/data_dictionary.xlsx
+++ b/lab1/data_dictionary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="3" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="59">
   <si>
     <t>Column names</t>
   </si>
@@ -162,9 +162,6 @@
     <t>type</t>
   </si>
   <si>
-    <t>language</t>
-  </si>
-  <si>
     <t>id_movies_genres</t>
   </si>
   <si>
@@ -202,6 +199,12 @@
   </si>
   <si>
     <t>not null and unique constraint</t>
+  </si>
+  <si>
+    <t>char(1)</t>
+  </si>
+  <si>
+    <t>char(3)</t>
   </si>
 </sst>
 </file>
@@ -566,8 +569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -637,7 +640,7 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>12</v>
@@ -772,7 +775,7 @@
         <v>21</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -28652,8 +28655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -28713,10 +28716,10 @@
         <v>33</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>33</v>
@@ -28741,10 +28744,10 @@
         <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>24</v>
@@ -28752,13 +28755,13 @@
     </row>
     <row r="5" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
@@ -28849,7 +28852,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>11</v>
@@ -28869,7 +28872,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>9</v>
@@ -28956,7 +28959,7 @@
         <v>15</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>17</v>
@@ -29046,7 +29049,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>28</v>
@@ -29066,7 +29069,7 @@
         <v>30</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>30</v>
@@ -29175,7 +29178,7 @@
         <v>27</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>29</v>
@@ -29322,7 +29325,7 @@
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>39</v>
@@ -29360,7 +29363,7 @@
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="8" t="s">
@@ -57313,8 +57316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -57377,7 +57380,7 @@
         <v>30</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>42</v>
@@ -57423,8 +57426,12 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
+      <c r="A6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="G6" s="3" t="s">
         <v>43</v>
       </c>
@@ -57432,17 +57439,13 @@
     <row r="7" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="G7" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="G8" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
   </sheetData>
@@ -57452,10 +57455,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:Z4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -57510,22 +57513,22 @@
     </row>
     <row r="2" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
@@ -57539,7 +57542,7 @@
         <v>30</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>30</v>
@@ -57556,30 +57559,10 @@
         <v>15</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -57650,22 +57633,22 @@
     </row>
     <row r="2" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
@@ -57679,7 +57662,7 @@
         <v>30</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>30</v>
@@ -57696,7 +57679,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>38</v>
@@ -57710,7 +57693,7 @@
         <v>33</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
